--- a/config_aomi_9.7/game_module_config.xlsx
+++ b/config_aomi_9.7/game_module_config.xlsx
@@ -3880,10 +3880,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_030</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_exit_ask</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3913,6 +3909,10 @@
   </si>
   <si>
     <t>act_ty_zp1_style/act_ty_zp1_007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_032</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H338" sqref="H338"/>
+      <selection pane="bottomRight" activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12755,7 +12755,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13183,7 +13183,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>981</v>
@@ -13437,25 +13437,25 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C348" t="s">
         <v>1018</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" s="29" t="s">
         <v>1019</v>
       </c>
-      <c r="D348" s="29" t="s">
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
         <v>1020</v>
-      </c>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
-      <c r="F348" s="5">
-        <v>1</v>
-      </c>
-      <c r="G348" s="5">
-        <v>1</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13463,13 +13463,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C349" t="s">
         <v>1022</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" s="29" t="s">
         <v>1023</v>
-      </c>
-      <c r="D349" s="29" t="s">
-        <v>1024</v>
       </c>
       <c r="E349" s="5">
         <v>1</v>
